--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2110630.94984474</v>
+        <v>2108087.163099282</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5107723990741</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>12.83532033605545</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.3828147651801</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739396</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179689</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>258.6025264431449</v>
       </c>
       <c r="W2" t="n">
-        <v>263.3828147651803</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.3828147651803</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642707</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>82.08496452868293</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>36.04855291082986</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718864</v>
       </c>
       <c r="S4" t="n">
-        <v>75.113961774496</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.3828147651803</v>
+        <v>59.64616940895814</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="C5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868286</v>
       </c>
       <c r="W5" t="n">
-        <v>97.26234557100793</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.8563301598667</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>63.37597849096244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>53.36410705248011</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.0782426849324</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>129.7556361602835</v>
+        <v>199.6452357812551</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>69.4415105081477</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>21.21812042899047</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>29.959001240238</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.2821160880066</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184774</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892423</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531716</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>39.52129633183167</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428033</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358384</v>
       </c>
     </row>
     <row r="35">
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695436</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611596726</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057063</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>267.7596539457002</v>
+        <v>423.5402914608978</v>
       </c>
       <c r="C2" t="n">
-        <v>267.7596539457002</v>
+        <v>423.5402914608978</v>
       </c>
       <c r="D2" t="n">
-        <v>40.98109596683754</v>
+        <v>423.5402914608978</v>
       </c>
       <c r="E2" t="n">
-        <v>40.98109596683754</v>
+        <v>423.5402914608978</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763408</v>
+        <v>416.5947907116943</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121443</v>
+        <v>403.6298206752747</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121443</v>
+        <v>137.586573437719</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121443</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467345</v>
+        <v>49.15993901467328</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935562</v>
+        <v>141.9970572935559</v>
       </c>
       <c r="L2" t="n">
-        <v>294.071473595997</v>
+        <v>294.0714735959968</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795976</v>
+        <v>494.9530007795972</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670326</v>
+        <v>703.6988094670321</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288946</v>
+        <v>887.476296028894</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108067</v>
+        <v>1009.825128108066</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060721</v>
+        <v>899.1940867193375</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060721</v>
+        <v>684.7549646357917</v>
       </c>
       <c r="U2" t="n">
-        <v>799.8461484208121</v>
+        <v>684.7549646357917</v>
       </c>
       <c r="V2" t="n">
-        <v>799.8461484208121</v>
+        <v>423.5402914608978</v>
       </c>
       <c r="W2" t="n">
-        <v>533.8029011832562</v>
+        <v>423.5402914608978</v>
       </c>
       <c r="X2" t="n">
-        <v>267.7596539457002</v>
+        <v>423.5402914608978</v>
       </c>
       <c r="Y2" t="n">
-        <v>267.7596539457002</v>
+        <v>423.5402914608978</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576.2671897856895</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="C3" t="n">
-        <v>576.2671897856895</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="D3" t="n">
-        <v>427.3327801244383</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="E3" t="n">
-        <v>268.0953251189828</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5607671458678</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5607671458678</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121443</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121443</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121443</v>
+        <v>117.0004092799677</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371043</v>
+        <v>191.5864341124636</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433172</v>
+        <v>338.1990901420702</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299034</v>
+        <v>528.6460126286563</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779527</v>
+        <v>738.5421433767054</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760988</v>
+        <v>908.3363012748514</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062221</v>
+        <v>1025.278016062219</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.15693115524</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.15693115524</v>
+        <v>904.8834594766909</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.15693115524</v>
+        <v>708.0718853367821</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.15693115524</v>
+        <v>479.935998637393</v>
       </c>
       <c r="V3" t="n">
-        <v>1035.15693115524</v>
+        <v>479.935998637393</v>
       </c>
       <c r="W3" t="n">
-        <v>952.2428255707114</v>
+        <v>225.6986419091914</v>
       </c>
       <c r="X3" t="n">
-        <v>952.2428255707114</v>
+        <v>225.6986419091914</v>
       </c>
       <c r="Y3" t="n">
-        <v>744.4825268057575</v>
+        <v>189.2859622012824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>490.8227440185283</v>
+        <v>174.996613592711</v>
       </c>
       <c r="C4" t="n">
-        <v>321.8865610906213</v>
+        <v>174.996613592711</v>
       </c>
       <c r="D4" t="n">
-        <v>321.8865610906213</v>
+        <v>174.996613592711</v>
       </c>
       <c r="E4" t="n">
-        <v>321.8865610906213</v>
+        <v>174.996613592711</v>
       </c>
       <c r="F4" t="n">
         <v>174.996613592711</v>
@@ -4480,58 +4480,58 @@
         <v>174.996613592711</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121443</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121443</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121443</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="K4" t="n">
         <v>126.3277805481198</v>
       </c>
       <c r="L4" t="n">
-        <v>316.547135250485</v>
+        <v>315.7177729964349</v>
       </c>
       <c r="M4" t="n">
-        <v>527.495897157082</v>
+        <v>526.6665349030319</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210595</v>
+        <v>738.0340231670093</v>
       </c>
       <c r="O4" t="n">
-        <v>918.079176137679</v>
+        <v>917.2498138836288</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351421</v>
+        <v>1047.079201097371</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060721</v>
+        <v>924.7153898971985</v>
       </c>
       <c r="S4" t="n">
-        <v>977.6585703996143</v>
+        <v>717.9193086652598</v>
       </c>
       <c r="T4" t="n">
-        <v>977.6585703996143</v>
+        <v>717.9193086652598</v>
       </c>
       <c r="U4" t="n">
-        <v>711.6153231620584</v>
+        <v>657.6706526966152</v>
       </c>
       <c r="V4" t="n">
-        <v>711.6153231620584</v>
+        <v>402.9861644907283</v>
       </c>
       <c r="W4" t="n">
-        <v>711.6153231620584</v>
+        <v>402.9861644907283</v>
       </c>
       <c r="X4" t="n">
-        <v>711.6153231620584</v>
+        <v>174.996613592711</v>
       </c>
       <c r="Y4" t="n">
-        <v>490.8227440185283</v>
+        <v>174.996613592711</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>423.8554133656</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>157.4777567984221</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>157.4777567984221</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4571,7 +4571,7 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W5" t="n">
-        <v>956.6107264999559</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>956.6107264999559</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>690.233069932778</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4659,10 +4659,10 @@
         <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>904.2569522304912</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428381</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="V6" t="n">
-        <v>591.5675658110954</v>
+        <v>474.2580350095591</v>
       </c>
       <c r="W6" t="n">
-        <v>337.3302090828938</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>129.4787088773609</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.0630263227563</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1268433948493</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4726,13 +4726,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640389</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>829.3864837640389</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>829.3864837640389</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>829.3864837640389</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="Y7" t="n">
-        <v>669.711491152996</v>
+        <v>225.1168882493048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.365042002428</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395677</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974331</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078256</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321143</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>2078.50437397824</v>
+        <v>1674.463969937836</v>
       </c>
       <c r="Y8" t="n">
-        <v>1688.365042002428</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057884</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429698</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744426</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733664</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.49210333061</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506773</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2546.853055059249</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.1991671823603</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>517.2629842544534</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1463448421176</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4960,52 +4960,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1566.303180167282</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1566.303180167282</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1343.324699362017</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1343.324699362017</v>
+        <v>1092.823040066908</v>
       </c>
       <c r="V10" t="n">
-        <v>1088.64021115613</v>
+        <v>838.1385518610207</v>
       </c>
       <c r="W10" t="n">
-        <v>1088.64021115613</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="X10" t="n">
-        <v>1088.64021115613</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="Y10" t="n">
-        <v>867.8476320126</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="11">
@@ -5024,7 +5024,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,13 +5276,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.637687073287</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2416.701466165879</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.846631820783</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2014.245166843724</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1725.169940187922</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1470.485451982035</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1181.068281945074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>953.0787310470569</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>732.2861519035267</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5543,7 +5543,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703137</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703137</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579779</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356586</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,28 +6236,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6680,34 +6680,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400699</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.917417812163</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.917417812163</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.917417812163</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270429</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703096</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,13 +7397,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,37 +7412,37 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877302</v>
+        <v>60.59164343877308</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079522</v>
+        <v>99.00790724000211</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>96.89877181692285</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>161.6369618909988</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872719683</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594376</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241487</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>36.58048154589974</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>36.41624546988369</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.54986409393069</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462256</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472143</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761409</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>126.0028419604372</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922705</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194356</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685109</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404981</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333086</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>864446.4116981591</v>
+        <v>864446.4116981593</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752544</v>
-      </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
@@ -26347,13 +26347,13 @@
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="O2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909294</v>
+        <v>679702.412490929</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680942056</v>
+        <v>366.4703680945045</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059455</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.5331864209</v>
+        <v>68912.53318642077</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774266889</v>
+        <v>85.20559774272741</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.6461375698</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674031</v>
+        <v>253116.5477674032</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676992</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26433,13 +26433,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
+        <v>12386.92018181811</v>
+      </c>
+      <c r="J4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181814</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26451,10 +26451,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181811</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557688</v>
+        <v>63021.46164557686</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-400585.1387523038</v>
+        <v>-400585.1387523035</v>
       </c>
       <c r="C6" t="n">
-        <v>278824.2446719096</v>
+        <v>278824.2446719093</v>
       </c>
       <c r="D6" t="n">
-        <v>-31557.81036188477</v>
+        <v>-31557.81036188253</v>
       </c>
       <c r="E6" t="n">
-        <v>-35813.60685501456</v>
+        <v>-35848.3447804524</v>
       </c>
       <c r="F6" t="n">
-        <v>471671.8347695291</v>
+        <v>471637.0968440938</v>
       </c>
       <c r="G6" t="n">
-        <v>471671.8347695291</v>
+        <v>471637.0968440932</v>
       </c>
       <c r="H6" t="n">
-        <v>471671.834769529</v>
+        <v>471637.0968440929</v>
       </c>
       <c r="I6" t="n">
-        <v>471671.8347695292</v>
+        <v>471637.0968440935</v>
       </c>
       <c r="J6" t="n">
-        <v>402759.3015831084</v>
+        <v>402724.5636576724</v>
       </c>
       <c r="K6" t="n">
-        <v>471586.6291717865</v>
+        <v>471551.8912463505</v>
       </c>
       <c r="L6" t="n">
-        <v>376289.1886319593</v>
+        <v>376254.4507065236</v>
       </c>
       <c r="M6" t="n">
-        <v>339064.5410406025</v>
+        <v>339029.8031151668</v>
       </c>
       <c r="N6" t="n">
-        <v>471671.8347695292</v>
+        <v>471637.0968440934</v>
       </c>
       <c r="O6" t="n">
-        <v>471671.8347695293</v>
+        <v>471637.0968440935</v>
       </c>
       <c r="P6" t="n">
-        <v>471671.834769529</v>
+        <v>471637.0968440934</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960511</v>
+        <v>613.7700232960509</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651803</v>
+        <v>263.3828147651801</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26805,13 +26805,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960511</v>
+        <v>613.7700232960509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734271149</v>
+        <v>0.2849904734273423</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480634</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651803</v>
+        <v>263.3828147651801</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363257987</v>
+        <v>0.3310652363260829</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651806</v>
+        <v>263.3828147651801</v>
       </c>
       <c r="K4" t="n">
-        <v>0.331065236325685</v>
+        <v>0.3310652363259123</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651803</v>
+        <v>263.3828147651801</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363257987</v>
+        <v>0.3310652363260829</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>130.1722692216089</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>50.82255116533815</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739395</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>69.14973202698997</v>
       </c>
       <c r="W2" t="n">
-        <v>85.85815395223267</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.3482859132887</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.4852405450068</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807543</v>
+        <v>43.94290942807545</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.1905846264271</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>169.6100186322367</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>169.6341428664745</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8841809557937</v>
@@ -27558,7 +27558,7 @@
         <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825656</v>
+        <v>15.10853304825659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>129.6141586451233</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>22.875843769347</v>
+        <v>226.6124891255692</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,10 +27673,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.950986551452</v>
       </c>
       <c r="W5" t="n">
-        <v>251.9786231464051</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.838653001052876</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>142.3067172863419</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.05694097045114</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27831,7 +27831,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.50641066716238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>239.9754645181855</v>
+        <v>170.0858648972139</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>32.11606191142573</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>265.0090336922102</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29682,7 +29682,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079601</v>
+        <v>2.4674171790796</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524897</v>
+        <v>25.26943618524896</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1251007964664</v>
+        <v>95.12510079646636</v>
       </c>
       <c r="J2" t="n">
         <v>209.4189488029074</v>
       </c>
       <c r="K2" t="n">
-        <v>313.864717993347</v>
+        <v>313.8647179933469</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876044</v>
+        <v>389.3769364876043</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460612</v>
+        <v>433.2568667460611</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061212</v>
+        <v>440.2674158061211</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316484</v>
+        <v>415.7320362316482</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231207</v>
+        <v>354.8176746231206</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973324</v>
+        <v>266.4532968973323</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753591</v>
+        <v>154.993894375359</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827646</v>
+        <v>56.22626896827644</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.80111870142095</v>
       </c>
       <c r="U2" t="n">
-        <v>0.197393374326368</v>
+        <v>0.1973933743263679</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.320184578410374</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148967</v>
+        <v>12.75020369148966</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333965</v>
+        <v>45.45372342333962</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435872</v>
+        <v>124.7284912435871</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970822</v>
+        <v>213.1808579970821</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289719</v>
+        <v>286.6479717289718</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963479</v>
+        <v>334.5046626963477</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682315</v>
+        <v>343.3580057682314</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466121</v>
+        <v>314.105494846612</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439951</v>
+        <v>252.097351643995</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5204033774365</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621607</v>
+        <v>81.96724952621604</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564882</v>
+        <v>24.52184951564881</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311988</v>
+        <v>5.321270296311987</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962991</v>
+        <v>0.08685424857962988</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,25 +31200,25 @@
         <v>1.10679840266501</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058007</v>
+        <v>9.840443980058003</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923504</v>
+        <v>33.28444650923503</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841621</v>
+        <v>78.25064706841619</v>
       </c>
       <c r="K4" t="n">
-        <v>128.589850782353</v>
+        <v>128.5898507823529</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653053</v>
+        <v>164.5507370653052</v>
       </c>
       <c r="M4" t="n">
         <v>173.4956805195706</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187285</v>
+        <v>169.3703410187284</v>
       </c>
       <c r="O4" t="n">
         <v>156.4409233148689</v>
@@ -31227,19 +31227,19 @@
         <v>133.8622359005026</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770372</v>
+        <v>92.67927351770368</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528308</v>
+        <v>49.76568090528306</v>
       </c>
       <c r="S4" t="n">
         <v>19.28847761735294</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477769</v>
+        <v>4.729047720477768</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354607</v>
+        <v>0.06037082196354605</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>560.1612034965799</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622115</v>
+        <v>28.37304427622109</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836648</v>
+        <v>93.77486694836637</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176172</v>
+        <v>153.610521517617</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187885</v>
+        <v>202.9106335187883</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095303</v>
+        <v>210.8543522095301</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099617</v>
+        <v>185.6338248099615</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678512</v>
+        <v>123.584678867851</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288291</v>
+        <v>44.14760702288285</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>96.89877181692255</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272323</v>
+        <v>75.33941902272315</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490977</v>
+        <v>148.0935919490976</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743295</v>
+        <v>192.3706287743294</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848982</v>
+        <v>212.016293684898</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021677</v>
+        <v>171.5092504021676</v>
       </c>
       <c r="P3" t="n">
-        <v>215.0217160465877</v>
+        <v>118.1229442296647</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141502</v>
+        <v>28.53862929141496</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,10 +34860,10 @@
         <v>106.3203589564701</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256214</v>
+        <v>191.3030226750657</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814112</v>
+        <v>213.0795574814111</v>
       </c>
       <c r="N4" t="n">
         <v>213.502513397957</v>
@@ -34875,7 +34875,7 @@
         <v>131.1407951653961</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.679490615454707</v>
+        <v>6.517230266009292</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676343</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634704</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.64270034434984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>418.0271695745616</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317105</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.342014319133</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899088</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
